--- a/biology/Zoologie/Adrianichthys/Adrianichthys.xlsx
+++ b/biology/Zoologie/Adrianichthys/Adrianichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adrianichthys est un genre de poisson de la famille des Adrianichthyidae et de l'ordre des Beloniformes. Ce genre est endémique au lac Poso en Sulawesi, en Indonésie et toutes les espèces sont très menacées par notamment la dégradation de leur habitat. Deux espèces sur les quatre que regroupe le genre sont peut-être déjà éteintes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (22 mai 2015)[1][2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (22 mai 2015):
 Adrianichthys kruyti M. C. W. Weber, 1913
 Adrianichthys oophorus (Kottelat, 1990)
 Adrianichthys poptae (M. C. W. Weber &amp; de Beaufort, 1922)
